--- a/test_suite/PROJECT1/PROJECT1_LOGIN_TestCase_test_result.xlsx
+++ b/test_suite/PROJECT1/PROJECT1_LOGIN_TestCase_test_result.xlsx
@@ -60,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -95,6 +95,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
         <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,7 +177,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -246,6 +252,7 @@
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="4" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -522,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J8"/>
+  <dimension ref="A2:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -643,7 +650,7 @@
         </is>
       </c>
       <c r="J4" s="33" t="n">
-        <v>44101.59312602232</v>
+        <v>44625.73604229138</v>
       </c>
     </row>
     <row outlineLevel="1" r="5">
@@ -685,7 +692,7 @@
         </is>
       </c>
       <c r="J5" s="33" t="n">
-        <v>44101.59317951822</v>
+        <v>44625.73609365054</v>
       </c>
     </row>
     <row outlineLevel="1" r="6">
@@ -727,7 +734,7 @@
         </is>
       </c>
       <c r="J6" s="33" t="n">
-        <v>44101.59323008896</v>
+        <v>44625.73614500392</v>
       </c>
     </row>
     <row outlineLevel="1" r="7">
@@ -765,7 +772,7 @@
         </is>
       </c>
       <c r="J7" s="33" t="n">
-        <v>44101.59330902624</v>
+        <v>44625.73621630198</v>
       </c>
     </row>
     <row outlineLevel="1" r="8">
@@ -797,13 +804,18 @@
         </is>
       </c>
       <c r="H8" s="31" t="n"/>
-      <c r="I8" s="32" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="I8" s="34" t="inlineStr">
+        <is>
+          <t>PENDING</t>
         </is>
       </c>
       <c r="J8" s="33" t="n">
-        <v>44101.59339053</v>
+        <v>44625.73626391733</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>&lt;class 'selenium.common.exceptions.NoSuchElementException'&gt;</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1024,16 +1036,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D5" r:id="rId10"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D5" r:id="rId10"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D5" r:id="rId10"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D5" r:id="rId10"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D5" r:id="rId10"/>
+    <hyperlink ref="D4" r:id="rId11"/>
+    <hyperlink ref="D5" r:id="rId12"/>
+    <hyperlink ref="D4" r:id="rId11"/>
+    <hyperlink ref="D5" r:id="rId12"/>
+    <hyperlink ref="D4" r:id="rId11"/>
+    <hyperlink ref="D5" r:id="rId12"/>
+    <hyperlink ref="D4" r:id="rId11"/>
+    <hyperlink ref="D5" r:id="rId12"/>
+    <hyperlink ref="D4" r:id="rId11"/>
+    <hyperlink ref="D5" r:id="rId12"/>
+    <hyperlink ref="D4" r:id="rId11"/>
+    <hyperlink ref="D5" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
